--- a/DMSNewVSale_2025-12-01_16-45.xlsx
+++ b/DMSNewVSale_2025-12-01_16-45.xlsx
@@ -95,6 +95,18 @@
     <t>136.0000</t>
   </si>
   <si>
+    <t>BETADERM 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CANTINERA TAB</t>
   </si>
   <si>
@@ -257,9 +269,6 @@
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -572,6 +581,24 @@
     <t>5.0000</t>
   </si>
   <si>
+    <t>ZINC OLIVE BABY CREAM 75 GM</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>بامبرز رقم 1</t>
   </si>
   <si>
@@ -591,9 +618,6 @@
   </si>
   <si>
     <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -1439,13 +1463,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1478,18 +1502,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1505,7 +1529,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1515,14 +1539,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1538,7 +1562,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1548,14 +1572,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1564,14 +1588,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1581,14 +1605,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1597,20 +1621,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1643,7 +1667,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1670,7 +1694,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1680,11 +1704,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>11</v>
@@ -1696,14 +1720,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1713,14 +1737,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1729,31 +1753,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1762,28 +1786,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>11</v>
@@ -1795,14 +1819,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1819,7 +1843,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1835,7 +1859,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1845,14 +1869,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1861,14 +1885,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1878,11 +1902,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>15</v>
@@ -1894,14 +1918,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1911,11 +1935,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>15</v>
@@ -1927,14 +1951,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1944,14 +1968,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1960,14 +1984,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1977,11 +2001,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>11</v>
@@ -2000,7 +2024,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2010,11 +2034,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>11</v>
@@ -2026,14 +2050,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2043,11 +2067,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>11</v>
@@ -2059,14 +2083,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2076,14 +2100,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2099,7 +2123,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2116,7 +2140,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2132,7 +2156,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2149,7 +2173,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2165,7 +2189,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2182,7 +2206,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2231,7 +2255,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2245,10 +2269,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2257,14 +2281,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2274,14 +2298,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2297,7 +2321,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2330,7 +2354,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2340,14 +2364,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2363,7 +2387,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2373,14 +2397,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2396,7 +2420,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2406,14 +2430,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2422,14 +2446,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2439,14 +2463,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>47</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2455,14 +2479,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2472,14 +2496,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2488,14 +2512,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2505,11 +2529,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>11</v>
@@ -2521,14 +2545,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2538,11 +2562,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>11</v>
@@ -2554,28 +2578,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>11</v>
@@ -2594,13 +2618,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2627,7 +2651,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2660,7 +2684,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2670,14 +2694,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2686,31 +2710,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2719,28 +2743,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>11</v>
@@ -2752,20 +2776,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2792,24 +2816,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2818,14 +2842,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2835,7 +2859,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2858,7 +2882,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2875,7 +2899,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2891,7 +2915,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,7 +2948,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2934,11 +2958,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>11</v>
@@ -2950,14 +2974,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2967,11 +2991,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>11</v>
@@ -2983,7 +3007,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3000,14 +3024,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3016,14 +3040,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3033,14 +3057,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3056,7 +3080,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3066,11 +3090,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>11</v>
@@ -3082,14 +3106,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3103,7 +3127,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>11</v>
@@ -3115,14 +3139,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3136,10 +3160,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3148,20 +3172,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3172,7 +3196,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3188,21 +3212,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>11</v>
@@ -3214,31 +3238,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3247,7 +3271,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3260,18 +3284,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3280,28 +3304,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>11</v>
@@ -3313,28 +3337,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>11</v>
@@ -3346,7 +3370,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3359,18 +3383,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3379,31 +3403,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3412,31 +3436,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3445,31 +3469,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>11</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3478,31 +3502,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3511,31 +3535,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3544,31 +3568,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3577,68 +3601,167 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" ht="26.25" customHeight="1">
-      <c r="N77" s="13">
-        <v>4261.1099999999997</v>
-      </c>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>215</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>216</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>217</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>218</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>25</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>33</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>219</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>220</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>212</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>33</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>132</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>221</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>89</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>33</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>222</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" ht="25.5" customHeight="1">
+      <c r="N80" s="13">
+        <v>4409.1099999999997</v>
+      </c>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>223</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>224</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>225</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3997,10 +4120,25 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
